--- a/src/test/resources/complex.xlsx
+++ b/src/test/resources/complex.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t xml:space="preserve">Numdiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Accepted</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -66,13 +72,14 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="d&quot;. &quot;mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -89,13 +96,33 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,7 +134,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -131,12 +158,24 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,19 +184,84 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -166,163 +270,217 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
         <v>43952</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="4" t="n">
         <v>43952.6549768519</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>3.252</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <f aca="false">C2-D2</f>
         <v>96.748</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="G2" s="5" t="n">
+        <v>43613</v>
+      </c>
+      <c r="H2" s="6" t="n">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
         <v>43953</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <v>43953.6549884259</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>4.255</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">C3-D3</f>
         <v>96.745</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="G3" s="5" t="n">
+        <v>43647</v>
+      </c>
+      <c r="H3" s="6" t="n">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
         <v>43954</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <v>43954.655</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>5.222</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">C4-D4</f>
         <v>96.778</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="G4" s="5" t="n">
+        <v>43654</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <v>43955.6550115741</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>6.981</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">C5-D5</f>
         <v>96.019</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="G5" s="5" t="n">
+        <v>43676</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>43956</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="4" t="n">
         <v>43956.6550231482</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>7.125</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">C6-D6</f>
         <v>96.875</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="G6" s="5" t="n">
+        <v>43709</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
         <v>43957</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="4" t="n">
         <v>43957.6550347223</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>8.021</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">C7-D7</f>
         <v>96.979</v>
       </c>
+      <c r="G7" s="5" t="n">
+        <v>43806</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/test/resources/complex.xlsx
+++ b/src/test/resources/complex.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\spreadsheets\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,79 +26,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">integer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Numdiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Accepted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">two</t>
-  </si>
-  <si>
-    <t xml:space="preserve">three</t>
-  </si>
-  <si>
-    <t xml:space="preserve">four</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">six</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Numdiff</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Date Accepted</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>six</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="167" formatCode="d&quot;. &quot;mmmm\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="d&quot;. &quot;mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -103,7 +91,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -126,7 +114,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -134,74 +122,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal 2" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -260,31 +205,305 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:H7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.29"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -310,169 +529,169 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>43952</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>43952.6549768519</v>
-      </c>
-      <c r="C2" s="1" t="n">
+      <c r="B2" s="4">
+        <v>43952.654976851903</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>3.252</v>
+      <c r="D2" s="1">
+        <v>3.2519999999999998</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">C2-D2</f>
-        <v>96.748</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F7" si="0">C2-D2</f>
+        <v>96.748000000000005</v>
+      </c>
+      <c r="G2" s="5">
         <v>43613</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="6">
         <v>43613</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>43953</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="4">
         <v>43953.6549884259</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>4.255</v>
+      <c r="D3" s="1">
+        <v>4.2549999999999999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">C3-D3</f>
-        <v>96.745</v>
-      </c>
-      <c r="G3" s="5" t="n">
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>96.745000000000005</v>
+      </c>
+      <c r="G3" s="5">
         <v>43647</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>43647</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>43954</v>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>43954.655</v>
-      </c>
-      <c r="C4" s="1" t="n">
+      <c r="B4" s="4">
+        <v>43954.654999999999</v>
+      </c>
+      <c r="C4" s="1">
         <v>102</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>5.222</v>
+      <c r="D4" s="1">
+        <v>5.2220000000000004</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">C4-D4</f>
-        <v>96.778</v>
-      </c>
-      <c r="G4" s="5" t="n">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>96.778000000000006</v>
+      </c>
+      <c r="G4" s="5">
         <v>43654</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="6">
         <v>43647</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>43955</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>43955.6550115741</v>
-      </c>
-      <c r="C5" s="1" t="n">
+      <c r="B5" s="4">
+        <v>43955.655011574097</v>
+      </c>
+      <c r="C5" s="1">
         <v>103</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>6.981</v>
+      <c r="D5" s="1">
+        <v>6.9809999999999999</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">C5-D5</f>
-        <v>96.019</v>
-      </c>
-      <c r="G5" s="5" t="n">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>96.019000000000005</v>
+      </c>
+      <c r="G5" s="5">
         <v>43676</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6">
         <v>43676</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>43956</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>43956.6550231482</v>
-      </c>
-      <c r="C6" s="1" t="n">
+      <c r="B6" s="4">
+        <v>43956.655023148203</v>
+      </c>
+      <c r="C6" s="1">
         <v>104</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>7.125</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">C6-D6</f>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
         <v>96.875</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>43709</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="6">
         <v>43709</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>43957</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>43957.6550347223</v>
-      </c>
-      <c r="C7" s="1" t="n">
+      <c r="B7" s="4">
+        <v>43957.655034722302</v>
+      </c>
+      <c r="C7" s="1">
         <v>105</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>8.021</v>
+      <c r="D7" s="1">
+        <v>8.0210000000000008</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">C7-D7</f>
-        <v>96.979</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>96.978999999999999</v>
+      </c>
+      <c r="G7" s="5">
         <v>43806</v>
       </c>
-      <c r="H7" s="6" t="n">
+      <c r="H7" s="6">
         <v>43806</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -483,10 +702,9 @@
       <c r="H8" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/test/resources/complex.xlsx
+++ b/src/test/resources/complex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Date Accepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fractions</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -78,11 +81,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="167" formatCode="d&quot;. &quot;mmmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -173,7 +177,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +204,10 @@
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -280,217 +288,238 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="1" sqref="A2:D3 E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+      <c r="J2" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="n">
         <v>43952</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="C3" s="4" t="n">
         <v>43952.6549768519</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="D3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>3.252</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">C2-D2</f>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <f aca="false">D3-E3</f>
         <v>96.748</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>43613</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="I3" s="6" t="n">
         <v>43613</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="J3" s="7" t="n">
+        <f aca="false">E3/D3</f>
+        <v>0.03252</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="n">
         <v>43953</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="C4" s="4" t="n">
         <v>43953.6549884259</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="D4" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>4.255</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">C3-D3</f>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">D4-E4</f>
         <v>96.745</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>43647</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="I4" s="6" t="n">
         <v>43647</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="J4" s="7" t="n">
+        <f aca="false">E4/D4</f>
+        <v>0.0421287128712871</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="n">
         <v>43954</v>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="C5" s="4" t="n">
         <v>43954.655</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="D5" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>5.222</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">C4-D4</f>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">D5-E5</f>
         <v>96.778</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>43654</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="I5" s="6" t="n">
         <v>43647</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="J5" s="7" t="n">
+        <f aca="false">E5/D5</f>
+        <v>0.0511960784313726</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3" t="n">
         <v>43955</v>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="C6" s="4" t="n">
         <v>43955.6550115741</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="D6" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="E6" s="1" t="n">
         <v>6.981</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">C5-D5</f>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">D6-E6</f>
         <v>96.019</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>43676</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="I6" s="6" t="n">
         <v>43676</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="J6" s="7" t="n">
+        <f aca="false">E6/D6</f>
+        <v>0.0677766990291262</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
         <v>43956</v>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="C7" s="4" t="n">
         <v>43956.6550231482</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="D7" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="E7" s="1" t="n">
         <v>7.125</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">C6-D6</f>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">D7-E7</f>
         <v>96.875</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>43709</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="I7" s="6" t="n">
         <v>43709</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
-        <v>43957</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>43957.6550347223</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>8.021</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">C7-D7</f>
-        <v>96.979</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>43806</v>
-      </c>
-      <c r="H7" s="6" t="n">
-        <v>43806</v>
+      <c r="J7" s="7" t="n">
+        <f aca="false">E7/D7</f>
+        <v>0.0685096153846154</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="1"/>
+      <c r="B8" s="3" t="n">
+        <v>43957</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>43957.6550347223</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>8.021</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">D8-E8</f>
+        <v>96.979</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>43806</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>43806</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <f aca="false">E8/D8</f>
+        <v>0.0763904761904762</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -510,15 +539,15 @@
   </sheetPr>
   <dimension ref="A2:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2020</v>
@@ -526,7 +555,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="n">
         <f aca="false">BEG</f>
